--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2520700.201024465</v>
+        <v>2518323.574077099</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9244120.220626453</v>
+        <v>9244120.220626451</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>45.05828934528598</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>286.9977044806042</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.038922838762</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2705165323381</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>70.49595672079438</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>345.7367844058006</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>176.4108372123235</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>142.9642744964697</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64.14173372374015</v>
+        <v>139.2262475794328</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>50.84815278861496</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542875</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417135</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.0291980517598</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>72.60410776435371</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>150.33415617735</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>53.08838020946329</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>38.218752751584</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>22.44547853568594</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>194.3650462979105</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060142</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>181.4413632672543</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>80.90831282609496</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>60.66149661128528</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>85.71023095289448</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>144.9604756260739</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
-        <v>75.21356227238219</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1284.324637962024</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1284.324637962024</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552737</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4346,34 +4346,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2392.126697345529</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2061.063810001958</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>2061.063810001958</v>
+        <v>1607.934920996351</v>
       </c>
       <c r="X2" t="n">
-        <v>2061.063810001958</v>
+        <v>1234.469162735271</v>
       </c>
       <c r="Y2" t="n">
-        <v>1670.924478026146</v>
+        <v>844.329830759459</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4389,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>343.6260600182044</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>638.3296170496762</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2262.298126874724</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>937.5665200750353</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C4" t="n">
-        <v>768.6303371471284</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.86271359008</v>
+        <v>859.5709967387896</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.86271359008</v>
+        <v>570.1538267018291</v>
       </c>
       <c r="X4" t="n">
-        <v>1305.873162692062</v>
+        <v>570.1538267018291</v>
       </c>
       <c r="Y4" t="n">
-        <v>1085.080583548532</v>
+        <v>383.0118908105785</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.4584982637875</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="C5" t="n">
-        <v>494.4959813233758</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="D5" t="n">
-        <v>136.2302827166252</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,16 +4562,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.432083834915</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.663428564801</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.197670303721</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="Y5" t="n">
-        <v>1250.058338327909</v>
+        <v>1295.021456295685</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4641,31 +4641,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>551.2876347907472</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>845.991191822219</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167645</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888576</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>76.715959553122</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>767.0814070827661</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>767.0814070827661</v>
       </c>
       <c r="X7" t="n">
-        <v>1202.620591960295</v>
+        <v>767.0814070827661</v>
       </c>
       <c r="Y7" t="n">
-        <v>981.8280128167645</v>
+        <v>546.2888279392359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1146.918698535759</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C8" t="n">
-        <v>777.9561815953475</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>777.9561815953475</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953475</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057399</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796631</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.313418796631</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.313418796631</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X8" t="n">
-        <v>1601.847660535551</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1211.708328559739</v>
+        <v>1793.919728214994</v>
       </c>
     </row>
     <row r="9">
@@ -4863,49 +4863,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310615</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103101</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687206</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
         <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4969,7 +4969,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1585.084349580947</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1388.455601740808</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1165.477120935544</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>876.3587834393812</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>621.6742952334944</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>621.6742952334944</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>621.6742952334944</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>400.8817160899642</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,43 +5206,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.08939327981</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853369</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580268</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235172</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235172</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.03302257937</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373483</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5267,61 +5267,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245697</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403286</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2045.209862480144</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192656</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111723</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797193</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637309</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890283</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.11872044489</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2393.338457106056</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2393.338457106056</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2104.263230450254</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1560.161572207407</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>1332.172021309389</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239598</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.212916266271</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1055.185257670616</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>886.2490747427089</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>736.1324353303731</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>588.21934174798</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>441.3293942500696</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>274.1332949649496</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>132.4214638071477</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235166</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1975.033022579363</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1685.615852542403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1457.626301644385</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1236.833722500855</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,37 +5966,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6005,31 +6005,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797193</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797193</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>870.3164745246301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>870.3164745246301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>720.1998351122943</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>572.2867415299012</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>425.3967940319908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>258.2006947468707</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>116.4888635890688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.7575184984</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.96493935487</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6543,19 +6543,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7017,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>701.3802915967227</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>551.263652184387</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,25 +7251,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,19 +7488,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.683526380545</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.608299724743</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.923811518856</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.506641481895</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.517090583878</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>633.9926444679666</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>483.8760050556308</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>483.8760050556308</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>336.9860575577204</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>169.7899582726004</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>169.7899582726004</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>45.76488231024544</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621885</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.591198401904</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>129.4330134067486</v>
       </c>
       <c r="L6" t="n">
-        <v>319.4183821282434</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>186.5911984019046</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>138.9393975111054</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664526</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>213.9188905722373</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.76050189075423</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>67.07129414993824</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>127.9379057921813</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>43.04708356698151</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>24.63391537253398</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>58.82035778287958</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>31.34460909112661</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814934</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>44.26829212178288</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>205.614685510496</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>85.77246603528388</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>139.9994244361427</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>72.44497470121439</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
-        <v>6.052274046183342</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>814965.3661991092</v>
+        <v>814965.3661991094</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>814965.3661991094</v>
+        <v>814965.3661991092</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>794287.2622779042</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="10">
@@ -26314,46 +26314,46 @@
         <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597552</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="K2" t="n">
-        <v>625538.6147597546</v>
-      </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099822</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618637</v>
@@ -26424,37 +26424,37 @@
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732004</v>
+        <v>8117.312426731944</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731869</v>
+        <v>8117.312426731967</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731876</v>
+        <v>8117.312426731988</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.31242673188</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426731984</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.31242673198</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731977</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731997</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732008</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426731996</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705700.1846328082</v>
+        <v>-705700.1846328084</v>
       </c>
       <c r="C6" t="n">
-        <v>409051.5989431112</v>
+        <v>409051.5989431118</v>
       </c>
       <c r="D6" t="n">
-        <v>409051.5989431114</v>
+        <v>409051.5989431117</v>
       </c>
       <c r="E6" t="n">
-        <v>8813.330884569907</v>
+        <v>8778.592959134199</v>
       </c>
       <c r="F6" t="n">
-        <v>516298.7725091159</v>
+        <v>516264.03458368</v>
       </c>
       <c r="G6" t="n">
-        <v>516298.772509116</v>
+        <v>516264.03458368</v>
       </c>
       <c r="H6" t="n">
-        <v>516298.7725091156</v>
+        <v>516264.03458368</v>
       </c>
       <c r="I6" t="n">
-        <v>516298.7725091158</v>
+        <v>516264.0345836796</v>
       </c>
       <c r="J6" t="n">
-        <v>348693.5946991337</v>
+        <v>348658.8567736975</v>
       </c>
       <c r="K6" t="n">
-        <v>516298.7725091156</v>
+        <v>516264.0345836803</v>
       </c>
       <c r="L6" t="n">
-        <v>516298.7725091158</v>
+        <v>516264.0345836801</v>
       </c>
       <c r="M6" t="n">
-        <v>383691.4787801889</v>
+        <v>383656.7408547534</v>
       </c>
       <c r="N6" t="n">
-        <v>516298.7725091158</v>
+        <v>516264.0345836799</v>
       </c>
       <c r="O6" t="n">
-        <v>516298.7725091156</v>
+        <v>516264.03458368</v>
       </c>
       <c r="P6" t="n">
-        <v>516298.7725091158</v>
+        <v>516264.03458368</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000381</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.986960783176</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>62.24326423680878</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.79305734317526</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>33.31413681975673</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>257.2563017493405</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3.504184311612391</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>3.421142969613811</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>82.74538089256743</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>318.5921079397405</v>
+        <v>243.5075940840478</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>50.70941963095866</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983992</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28099,10 +28099,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28281,13 +28281,13 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>6.97563488453549e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-4.551261486021622e-13</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.326832458920986e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30469,13 +30469,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31555,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31604,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31616,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963271</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,34 +32075,34 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927443</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
-        <v>342.4905264542638</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,16 +32783,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>314.3020503687023</v>
       </c>
       <c r="P24" t="n">
-        <v>550.5977692975237</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>691.6611968462892</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>531.2627466777524</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>451.9270028924504</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,28 +33971,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>479.6444630806909</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>748.8168776781358</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>154.5219885631796</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>232.3523785537303</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34796,7 +34796,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>303.0719207327586</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>316.0205096502335</v>
       </c>
       <c r="L6" t="n">
-        <v>617.0987427660937</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
@@ -35033,10 +35033,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>640.584832100039</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>553.5225306839452</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>530.1364971039794</v>
       </c>
       <c r="O9" t="n">
         <v>335.4246819961231</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164529</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,13 +35577,13 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899145</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066233</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.587454168382</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561594</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627482999</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
-        <v>211.1488143709305</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>171.7058059242579</v>
       </c>
       <c r="P24" t="n">
-        <v>416.6233618831934</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>560.3194847629559</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>397.2883392634221</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>320.5852908091172</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,28 +37619,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>337.5104291586726</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>617.4751655948025</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>20.54758114884936</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
